--- a/baseline/results_difficult_cases.xlsx
+++ b/baseline/results_difficult_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0_App_Development_Folder\Playwright_Crawler_New\baseline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04F6E15-3A79-47F2-A49A-52FED6405AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9EB961-DCE9-4217-A460-73255A1F0E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Targeted Brand / Categories</t>
   </si>
@@ -86,13 +86,61 @@
   </si>
   <si>
     <t>KRAFTON</t>
+  </si>
+  <si>
+    <t>Narodnye Napitki</t>
+  </si>
+  <si>
+    <t>Народные Напитки</t>
+  </si>
+  <si>
+    <t>Pivocom</t>
+  </si>
+  <si>
+    <t>Sheng Ho Jiun</t>
+  </si>
+  <si>
+    <t>彰化生合均有限公司</t>
+  </si>
+  <si>
+    <t>ABANCA</t>
+  </si>
+  <si>
+    <t>Galicia</t>
+  </si>
+  <si>
+    <t>Gazprombank</t>
+  </si>
+  <si>
+    <t>ГазпромБанк</t>
+  </si>
+  <si>
+    <t>Банка ДСК</t>
+  </si>
+  <si>
+    <t>Tencent</t>
+  </si>
+  <si>
+    <t>Wsend</t>
+  </si>
+  <si>
+    <t>Whatsapp</t>
+  </si>
+  <si>
+    <t>GBWhatsapp</t>
+  </si>
+  <si>
+    <t>NotreDame Intermédica</t>
+  </si>
+  <si>
+    <t>GNDI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -108,6 +156,21 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -155,6 +218,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -374,11 +446,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -484,7 +556,9 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
@@ -523,16 +597,77 @@
       <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
     </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C10" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" sqref="B8 B10 B6:C6 A5:A10 A2:B3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showErrorMessage="1" sqref="B8 B10 B6:C6 A5:A10 A2:B3 C11 A12:B12 A14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/baseline/results_difficult_cases.xlsx
+++ b/baseline/results_difficult_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0_App_Development_Folder\Playwright_Crawler_New\baseline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9EB961-DCE9-4217-A460-73255A1F0E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7C09C8-F739-4995-805D-4B888BFA40ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20190" yWindow="1020" windowWidth="14115" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Targeted Brand / Categories</t>
   </si>
   <si>
-    <t>Facebook</t>
-  </si>
-  <si>
     <t>Garena</t>
   </si>
   <si>
@@ -134,6 +131,63 @@
   </si>
   <si>
     <t>GNDI</t>
+  </si>
+  <si>
+    <t>Posteitaliane</t>
+  </si>
+  <si>
+    <t>BancoPosta</t>
+  </si>
+  <si>
+    <t>ethereum</t>
+  </si>
+  <si>
+    <t>Trustwallet</t>
+  </si>
+  <si>
+    <t>hiworks</t>
+  </si>
+  <si>
+    <t>하이웍스</t>
+  </si>
+  <si>
+    <t>Skatteforvaltningen (Danish Customs and Tax Administration)</t>
+  </si>
+  <si>
+    <t>Skat</t>
+  </si>
+  <si>
+    <t>T.C. Vatandaş Kimlik Doğrulama Sistemi</t>
+  </si>
+  <si>
+    <t>Intuit</t>
+  </si>
+  <si>
+    <t>QuickBooks</t>
+  </si>
+  <si>
+    <t>UniCredit BulBank</t>
+  </si>
+  <si>
+    <t>УниКредит Булбанк АД</t>
+  </si>
+  <si>
+    <t>DBS</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>Deutsche Post</t>
+  </si>
+  <si>
+    <t>Codashop</t>
+  </si>
+  <si>
+    <t>Coda Payments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGMI </t>
   </si>
 </sst>
 </file>
@@ -202,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -228,6 +282,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,11 +504,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -472,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -484,10 +542,10 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2"/>
@@ -497,12 +555,14 @@
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
@@ -510,10 +570,10 @@
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4"/>
@@ -523,10 +583,10 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5"/>
@@ -536,13 +596,13 @@
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -551,13 +611,13 @@
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -566,10 +626,10 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8"/>
@@ -578,11 +638,11 @@
       <c r="G8"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>1</v>
+      <c r="A9" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9"/>
@@ -592,82 +652,151 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10"/>
+        <v>30</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>35</v>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C10" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" showErrorMessage="1" sqref="B8 B10 B6:C6 A5:A10 A2:B3 C11 A12:B12 A14" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="A18:B18 A19:A20 C3 A22:A25" xr:uid="{EB23B028-9052-41FD-9AC9-F16FDC97F190}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
